--- a/code/cuda/grobner/data.xlsx
+++ b/code/cuda/grobner/data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大二下课程\并行计算\第一次实验\code\cuda\grobner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573E0335-B4B6-458D-A093-4F1CE28C4204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A65BA6-98F4-4102-9A49-63610BF82A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="2184" windowWidth="17280" windowHeight="8964" xr2:uid="{620739F3-E0EE-4962-88D7-71BEAF5D1B44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{620739F3-E0EE-4962-88D7-71BEAF5D1B44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>思路1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +91,22 @@
   </si>
   <si>
     <t>不可测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7（ms）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云端加速比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,6 +175,1095 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$L$23:$P$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1（ms）</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2（ms）</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4（ms）</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5（ms）</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7（ms）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$24:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.4106293693685567E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4584267923839195E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0012772127017374E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0299239835611136E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4896755775134958E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8E9-4AFD-A7E5-70B18593AD96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>算法2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$L$23:$P$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1（ms）</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2（ms）</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4（ms）</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5（ms）</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7（ms）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$25:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2404554770626198E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0013805717227769E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6454988885740011E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24560959374560523</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39004425219882877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A8E9-4AFD-A7E5-70B18593AD96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="174935871"/>
+        <c:axId val="178477247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="174935871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178477247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="178477247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="174935871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB807270-7CF6-6348-0168-370C56D7DA70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>6.5764000000000003E-2</v>
+          </cell>
+          <cell r="C2">
+            <v>0.48201699999999997</v>
+          </cell>
+          <cell r="D2">
+            <v>12.480499999999999</v>
+          </cell>
+          <cell r="E2">
+            <v>89.119600000000005</v>
+          </cell>
+          <cell r="F2">
+            <v>10392.4</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>8.8742800000000006</v>
+          </cell>
+          <cell r="C3">
+            <v>88.306945999999996</v>
+          </cell>
+          <cell r="D3">
+            <v>1246.4580080000001</v>
+          </cell>
+          <cell r="E3">
+            <v>4390.2924800000001</v>
+          </cell>
+          <cell r="F3">
+            <v>297804.1875</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>2.9352960000000001</v>
+          </cell>
+          <cell r="C4">
+            <v>24.084225</v>
+          </cell>
+          <cell r="D4">
+            <v>163.23983799999999</v>
+          </cell>
+          <cell r="E4">
+            <v>362.85064699999998</v>
+          </cell>
+          <cell r="F4">
+            <v>26644.15625</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,15 +1563,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF118A16-3342-4D75-9497-4B16EE3B3553}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:P13"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
     <col min="11" max="11" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -731,6 +1840,24 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5.0944320000000003</v>
+      </c>
+      <c r="C13">
+        <v>111.53778800000001</v>
+      </c>
+      <c r="D13">
+        <v>1259.0061040000001</v>
+      </c>
+      <c r="E13">
+        <v>4032.5429690000001</v>
+      </c>
+      <c r="F13">
+        <v>285115.75</v>
+      </c>
       <c r="K13" t="s">
         <v>11</v>
       </c>
@@ -875,8 +2002,104 @@
         <v>18355.537109000001</v>
       </c>
     </row>
+    <row r="23" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="1">
+        <f>[1]data!$B$2/[1]data!B3</f>
+        <v>7.4106293693685567E-3</v>
+      </c>
+      <c r="M24" s="1">
+        <f>[1]data!$C$2/[1]data!C3</f>
+        <v>5.4584267923839195E-3</v>
+      </c>
+      <c r="N24" s="1">
+        <f>[1]data!$D$2/[1]data!D3</f>
+        <v>1.0012772127017374E-2</v>
+      </c>
+      <c r="O24" s="1">
+        <f>[1]data!$E$2/[1]data!E3</f>
+        <v>2.0299239835611136E-2</v>
+      </c>
+      <c r="P24" s="1">
+        <f>[1]data!$F$2/[1]data!F3</f>
+        <v>3.4896755775134958E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="1">
+        <f>[1]data!$B$2/[1]data!B4</f>
+        <v>2.2404554770626198E-2</v>
+      </c>
+      <c r="M25" s="1">
+        <f>[1]data!$C$2/[1]data!C4</f>
+        <v>2.0013805717227769E-2</v>
+      </c>
+      <c r="N25" s="1">
+        <f>[1]data!$D$2/[1]data!D4</f>
+        <v>7.6454988885740011E-2</v>
+      </c>
+      <c r="O25" s="1">
+        <f>[1]data!$E$2/[1]data!E4</f>
+        <v>0.24560959374560523</v>
+      </c>
+      <c r="P25" s="1">
+        <f>[1]data!$F$2/[1]data!F4</f>
+        <v>0.39004425219882877</v>
+      </c>
+    </row>
+    <row r="26" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="1">
+        <f>[1]data!$B$2/B13</f>
+        <v>1.2908995546510387E-2</v>
+      </c>
+      <c r="M26" s="1">
+        <f>[1]data!$C$2/C13</f>
+        <v>4.3215578203863961E-3</v>
+      </c>
+      <c r="N26" s="1">
+        <f>[1]data!$D$2/D13</f>
+        <v>9.9129781502632006E-3</v>
+      </c>
+      <c r="O26" s="1">
+        <f>[1]data!$E$2/E13</f>
+        <v>2.2100099288489442E-2</v>
+      </c>
+      <c r="P26" s="1">
+        <f>[1]data!$F$2/F13</f>
+        <v>3.6449757686132733E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>